--- a/docs/BOM/ProMicro_BUS.xlsx
+++ b/docs/BOM/ProMicro_BUS.xlsx
@@ -253,7 +253,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 10:20:57 2020</t>
+    <t>Fri Aug 14 12:35:09 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
